--- a/data/trans_camb/P24_6_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_6_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,85</t>
+          <t>10,57</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,71</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,73</t>
+          <t>-9,5</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-11,26</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-10,58</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-5,16</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-4,61</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-4,54</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-2,48</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,84</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4,65</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 6,15</t>
+          <t>-7,23; 6,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 10,63</t>
+          <t>-6,02; 8,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 6,87</t>
+          <t>-6,62; 8,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 15,31</t>
+          <t>-4,51; 12,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 0,09</t>
+          <t>-0,94; 21,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -1,56</t>
+          <t>-3,73; 19,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,32; -2,71</t>
+          <t>-17,99; -0,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 6,68</t>
+          <t>-19,33; -2,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 0,71</t>
+          <t>-18,6; -2,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 2,19</t>
+          <t>-18,03; -0,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 0,7</t>
+          <t>-3,19; 17,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 8,19</t>
+          <t>-8,63; 12,19</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 0,65</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-10,29; 1,0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-9,61; 1,44</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 3,62</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 16,49</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 12,3</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,03%</t>
+          <t>-12,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>54,54%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-35,92%</t>
+          <t>77,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-43,47%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-43,54%</t>
+          <t>-38,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,89%</t>
+          <t>-45,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-26,83%</t>
+          <t>-42,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-22,04%</t>
+          <t>-34,34%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-29,29%</t>
+          <t>43,68%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-29,68%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-26,5%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-26,12%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-14,26%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>59,26%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,07; 74,73</t>
+          <t>-54,81; 81,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 143,47</t>
+          <t>-44,47; 111,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,04; 98,2</t>
+          <t>-50,37; 108,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 202,27</t>
+          <t>-34,94; 160,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,9; 1,23</t>
+          <t>-7,15; 250,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,78; -5,27</t>
+          <t>-18,64; 169,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,5; -11,49</t>
+          <t>-63,07; -3,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,47; 32,76</t>
+          <t>-66,82; -8,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,94; 4,48</t>
+          <t>-64,66; -12,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-47,32; 17,33</t>
+          <t>-61,28; 1,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-52,9; 6,06</t>
+          <t>-17,36; 146,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 55,94</t>
+          <t>-32,57; 73,73</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-51,06; 4,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-49,51; 7,96</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-48,36; 9,99</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-42,61; 25,97</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 146,18</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-13,28; 78,31</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>9,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>17,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>-11,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>5,28</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6,39</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>11,39</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 15,46</t>
+          <t>-4,22; 13,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 12,41</t>
+          <t>-2,06; 12,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 18,54</t>
+          <t>1,23; 19,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 18,24</t>
+          <t>7,57; 31,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 12,64</t>
+          <t>-25,78; 0,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 6,61</t>
+          <t>-14,13; 6,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 11,52</t>
+          <t>-6,71; 10,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 16,24</t>
+          <t>-9,3; 6,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 9,31</t>
+          <t>-4,43; 11,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 7,28</t>
+          <t>-4,12; 13,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 12,35</t>
+          <t>-2,63; 17,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 15,07</t>
+          <t>-5,0; 15,4</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 9,12</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 7,52</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 12,94</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5,02; 20,18</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-10,69; 6,53</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 7,85</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>54,08%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>82,05%</t>
+          <t>87,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>170,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>-39,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>-15,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>-5,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36,23%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>51,22%</t>
+          <t>17,71%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15,01%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>38,93%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>69,39%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-6,89%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 196,48</t>
+          <t>-36,34; 170,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 167,73</t>
+          <t>-18,28; 149,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 246,62</t>
+          <t>5,71; 241,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,58; 238,8</t>
+          <t>53,13; 414,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 65,65</t>
+          <t>-69,58; 3,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 36,03</t>
+          <t>-53,53; 47,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 63,19</t>
+          <t>-24,98; 56,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 86,36</t>
+          <t>-34,34; 33,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 63,87</t>
+          <t>-16,21; 63,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 52,43</t>
+          <t>-16,19; 69,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 87,39</t>
+          <t>-7,88; 78,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,51; 105,55</t>
+          <t>-14,18; 61,29</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-20,31; 66,1</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-18,62; 57,04</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 92,19</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>24,36; 138,38</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-32,26; 28,64</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-23,24; 37,76</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6,28</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5,46</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>4,94</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 6,08</t>
+          <t>-7,5; 8,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 8,2</t>
+          <t>-6,8; 7,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 13,98</t>
+          <t>-2,99; 12,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 14,46</t>
+          <t>-4,46; 11,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 5,1</t>
+          <t>-1,27; 16,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 5,42</t>
+          <t>-4,79; 13,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 14,66</t>
+          <t>-8,53; 6,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 15,8</t>
+          <t>-7,06; 5,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 2,83</t>
+          <t>0,61; 14,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 4,48</t>
+          <t>0,02; 15,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 11,55</t>
+          <t>-3,54; 14,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 12,08</t>
+          <t>-4,31; 14,86</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 4,83</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 5,07</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 11,82</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 11,22</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 12,74</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 11,42</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,56%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,9%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>-3,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-9,46%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-3,82%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>26,88%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>21,24%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>16,43%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,5; 45,55</t>
+          <t>-37,76; 53,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,68; 63,0</t>
+          <t>-32,13; 52,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 100,93</t>
+          <t>-14,45; 91,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 101,55</t>
+          <t>-22,35; 79,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 19,23</t>
+          <t>-6,22; 97,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 21,92</t>
+          <t>-18,12; 63,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 55,18</t>
+          <t>-26,69; 23,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 60,46</t>
+          <t>-21,68; 23,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 14,08</t>
+          <t>1,91; 55,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 21,98</t>
+          <t>-0,33; 59,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,31; 55,5</t>
+          <t>-8,58; 44,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 56,83</t>
+          <t>-10,61; 44,48</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-23,86; 22,63</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-20,15; 23,58</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 57,2</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 53,41</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 49,05</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 42,92</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,89</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,13</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>12,2</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>17,36</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10,64</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>18,65</t>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,48</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>10,92</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>12,97</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 9,96</t>
+          <t>-3,23; 10,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 8,47</t>
+          <t>-4,17; 9,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 16,76</t>
+          <t>3,51; 18,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,11; 29,42</t>
+          <t>1,59; 16,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 6,2</t>
+          <t>1,7; 20,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 15,69</t>
+          <t>-9,99; 10,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,64; 19,12</t>
+          <t>-7,81; 7,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,33; 26,61</t>
+          <t>1,31; 16,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 6,24</t>
+          <t>5,34; 19,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 10,64</t>
+          <t>9,12; 24,58</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,21; 15,77</t>
+          <t>-7,89; 9,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,79; 24,44</t>
+          <t>-10,2; 8,16</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 6,6</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 11,0</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 16,09</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>7,66; 18,55</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 12,51</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-7,51; 6,5</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>53,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>106,3%</t>
+          <t>49,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>-0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>-0,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>54,94%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>50,32%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>69,1%</t>
+          <t>-2,13%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>20,31%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>40,46%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>48,08%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-0,89%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 63,78</t>
+          <t>-16,4; 71,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 52,76</t>
+          <t>-19,43; 59,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,97; 108,77</t>
+          <t>14,19; 118,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>54,61; 192,48</t>
+          <t>7,3; 109,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 20,3</t>
+          <t>5,74; 89,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,1; 49,71</t>
+          <t>-23,22; 31,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,16; 61,53</t>
+          <t>-20,56; 22,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,45; 84,04</t>
+          <t>3,68; 53,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 24,74</t>
+          <t>13,62; 62,95</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,91; 44,1</t>
+          <t>23,1; 78,12</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,72; 64,81</t>
+          <t>-14,36; 19,06</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>44,17; 99,42</t>
+          <t>-17,09; 17,1</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-12,5; 26,89</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 44,59</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>19,87; 67,57</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>26,33; 75,6</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 33,91</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-15,13; 15,38</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,07</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,27</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,78</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,86</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>35,08</t>
+          <t>17,82</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>13,92</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>11,19</t>
+          <t>17,12</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>12,66</t>
+          <t>12,22</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>28,77</t>
+          <t>-5,74</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,89</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>11,5</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>12,67</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>15,84</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>10,95</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 5,8</t>
+          <t>-9,81; 5,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 12,01</t>
+          <t>-2,97; 12,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,05; 19,32</t>
+          <t>3,02; 19,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,74; 31,49</t>
+          <t>5,09; 23,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 17,2</t>
+          <t>-0,05; 19,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,78; 26,07</t>
+          <t>-7,87; 13,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,72; 22,91</t>
+          <t>1,14; 18,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>26,85; 43,73</t>
+          <t>8,56; 26,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 9,46</t>
+          <t>5,32; 22,23</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>5,61; 18,03</t>
+          <t>8,46; 27,38</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>6,61; 19,02</t>
+          <t>2,32; 22,64</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>21,86; 34,45</t>
+          <t>-15,66; 3,31</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 10,31</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>5,25; 17,47</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 18,57</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 22,2</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 17,61</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-9,32; 5,37</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-11,12%</t>
+          <t>-9,6%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>48,28%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>61,85%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>53,72%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>105,98%</t>
+          <t>53,84%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>42,06%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>51,72%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>103,15%</t>
+          <t>-8,42%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>41,24%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>45,42%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>56,78%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>25,04%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-3,49%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 29,57</t>
+          <t>-37,01; 27,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 64,49</t>
+          <t>-10,18; 69,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>12,22; 106,73</t>
+          <t>11,12; 106,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>44,66; 172,48</t>
+          <t>21,55; 126,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 59,97</t>
+          <t>-1,27; 58,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>22,84; 88,19</t>
+          <t>-15,66; 35,81</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,47; 78,9</t>
+          <t>3,03; 66,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>71,05; 153,67</t>
+          <t>22,82; 91,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 38,6</t>
+          <t>14,37; 79,0</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>17,8; 71,46</t>
+          <t>23,06; 97,07</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>21,51; 77,66</t>
+          <t>4,27; 50,8</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>70,26; 140,16</t>
+          <t>-21,15; 5,25</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 41,55</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>16,82; 71,22</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>21,25; 74,4</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>30,64; 87,43</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 43,69</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-15,22; 10,1</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11,16</t>
+          <t>10,9</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>13,4</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>14,68</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>14,28</t>
+          <t>5,25</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>7,22</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>8,68</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>9,78</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>7,98</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>3,47</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 9,96</t>
+          <t>-11,84; 6,51</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 17,24</t>
+          <t>-4,55; 15,88</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,76; 21,76</t>
+          <t>0,22; 20,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,99; 24,59</t>
+          <t>1,51; 23,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 12,88</t>
+          <t>-8,52; 14,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 16,54</t>
+          <t>-11,16; 12,68</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 14,58</t>
+          <t>-5,39; 13,11</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,22; 24,71</t>
+          <t>-0,38; 18,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 9,06</t>
+          <t>-2,9; 16,58</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 13,74</t>
+          <t>-2,31; 18,31</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 15,03</t>
+          <t>-0,81; 22,96</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,72; 22,68</t>
+          <t>-6,85; 18,64</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 8,53</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 13,79</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 15,73</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 17,34</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 16,58</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 12,46</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>-8,45%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>48,28%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>38,62%</t>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>23,47%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>26,47%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>17,08%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 51,69</t>
+          <t>-40,77; 31,08</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 86,49</t>
+          <t>-17,24; 74,77</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1,54; 106,32</t>
+          <t>-0,0; 103,83</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,19; 125,05</t>
+          <t>4,77; 113,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 30,81</t>
+          <t>-20,34; 47,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 40,96</t>
+          <t>-25,03; 39,82</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 34,3</t>
+          <t>-10,6; 30,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>6,92; 57,44</t>
+          <t>-0,64; 43,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 26,2</t>
+          <t>-5,59; 39,53</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 39,58</t>
+          <t>-4,1; 43,91</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 43,96</t>
+          <t>-1,04; 47,76</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>16,94; 68,15</t>
+          <t>-10,24; 33,64</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-12,43; 24,76</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 40,94</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 45,54</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 50,72</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 38,87</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; 26,92</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>12,85</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>14,08</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>13,31</t>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>6,7</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,26</t>
+          <t>-2,93; 3,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,2; 7,03</t>
+          <t>0,04; 6,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,96</t>
+          <t>4,5; 11,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9,1; 16,97</t>
+          <t>6,29; 14,01</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 4,03</t>
+          <t>0,6; 9,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 6,55</t>
+          <t>-2,06; 6,96</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,98; 8,8</t>
+          <t>-2,41; 4,54</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>10,36; 18,38</t>
+          <t>0,41; 6,85</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,52</t>
+          <t>1,96; 9,16</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,6</t>
+          <t>4,55; 12,11</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,9</t>
+          <t>3,12; 12,11</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>10,8; 16,5</t>
+          <t>-3,32; 6,33</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 2,91</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 5,75</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 9,14</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>6,18; 11,84</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 9,45</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 4,82</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,27%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>73,82%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>26,52%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>35,76%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 20,49</t>
+          <t>-15,38; 21,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,94; 44,27</t>
+          <t>0,22; 41,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>21,31; 68,35</t>
+          <t>23,98; 68,06</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>47,21; 104,91</t>
+          <t>33,12; 85,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 12,92</t>
+          <t>1,66; 38,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 20,99</t>
+          <t>-6,19; 24,93</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>5,67; 27,83</t>
+          <t>-7,08; 14,53</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>30,38; 59,33</t>
+          <t>1,3; 22,1</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 10,19</t>
+          <t>5,97; 29,75</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>3,26; 23,68</t>
+          <t>13,19; 38,93</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>14,96; 36,45</t>
+          <t>7,29; 30,93</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>40,83; 68,21</t>
+          <t>-6,83; 13,96</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 12,0</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 23,86</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>15,55; 38,07</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 48,39</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>8,3; 29,03</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 12,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
